--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['MEC-2NB-C. L. P.', 'MEC-2NB-C. L. P.', 'MEC-2NB-C. L. P.', 'MEC-2NB-C. L. P.']</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, 'MEC-2NB-C. L. P.', -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', -, -, 'ELM-2NA-Eletro']</t>
+          <t>['MEC-2NA-C.pneumática', 'MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, 'MEC-2NB-C. L. P.', -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-Coman. Hidraulicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELM-1NA-M.T.R.M.</t>
+          <t>['MEC-2NA-C.pneumática', 'MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletropneumática', -, 'ELM-2NA-Eletropneumática', -]</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, 'MEC-2NB-C. L. P.', -]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C. Hidráulica', 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C. Hidráulica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELM-1NA-M.T.R.M.</t>
+          <t>['MEC-2NA-C.pneumática', 'MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', 'MEC-2NA-C.L.P.', 'MEC-2NA-C.L.P.', 'MEC-2NA-C.L.P.']</t>
+          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, 'MEC-2NB-C. L. P.', -]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', 'ELM-2NA-Eletropneumática', 'ELM-2NA-Eletro']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C. Pneumática', 'MEC-2NA-C. Pneumática', 'MEC-2NA-C. Pneumática', 'MEC-2NA-C. Pneumática']</t>
+          <t>[Guilherme-C.pneumática-2NA, 'MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,12 +985,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, 'MEC-2NB-C. L. P.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'ELM-2NA-Eletropneumática', 'ELM-2NA-Eletro']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.pneumática', 'MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>[-, 'MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos']</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, 'MEC-2NB-C. L. P.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Guilherme-Eletropneumática-2NA, 'ELM-2NA-Eletro']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.pneumática', 'MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>[-, 'MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos']</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1049,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, 'MEC-2NB-C. L. P.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'ELM-2NA-Eletropneumática', 'ELM-2NA-Eletro']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.pneumática', 'MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>[-, 'MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos']</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, 'MEC-2NB-C. L. P.', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'ELM-2NA-Eletropneumática', 'ELM-2NA-Eletro']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Guilherme-C.pneumática-2NA, 'MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>[-, 'MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos']</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-2NA-Eletropneumática', 'ELM-2NA-Eletro']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos']</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, -, 'MEC-2NB-C. L. P.']</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, -, Guilherme-Eletropneumática-2NA, 'ELM-2NA-Eletro']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos']</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, -, 'MEC-2NB-C. L. P.']</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-2NA-Eletropneumática', 'ELM-2NA-Eletro']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos']</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, -, 'MEC-2NB-C. L. P.']</t>
         </is>
       </c>
     </row>
@@ -1086,26 +1086,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-2NA-Eletropneumática', 'ELM-2NA-Eletro']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos']</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, -, 'MEC-2NB-C. L. P.']</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,12 +985,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2NA-C.L.P.', 'MEC-2NB-Coman. Hidraulicos', -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletropneumática', -, 'MEC-2NB-C. L. P.']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica']</t>
+          <t>[-, 'MEC-2NB-C. L. P.', 'MEC-2NB-Coman. Hidraulicos', -]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, -, 'MEC-2NB-C. L. P.']</t>
+          <t>[-, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica', -]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', 'MEC-2NA-C.pneumática', 'ELM-2NA-Eletropneumática', -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
+          <t>[-, -, -, 'MEC-2NA-C.pneumática']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica']</t>
+          <t>[-, 'MEC-2NB-C. L. P.', 'MEC-2NB-Coman. Hidraulicos', -]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, -, 'MEC-2NB-C. L. P.']</t>
+          <t>[-, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C.pneumática']</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1049,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', 'MEC-2NA-C.pneumática', -, -]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica']</t>
+          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, -, 'MEC-2NB-C. L. P.']</t>
+          <t>[-, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica', -]</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', -, -, 'ELM-2NA-Eletropneumática']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica']</t>
+          <t>['MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos', -]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, -, 'MEC-2NB-C. L. P.']</t>
+          <t>[-, -, 'MEC-2NA-C. Hidráulica', -]</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NA-C.L.P.', 'MEC-2NB-Coman. Hidraulicos', -]</t>
+          <t>[-, -, 'MEC-2NA-C. Hidráulica', -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletropneumática', -, 'MEC-2NB-C. L. P.']</t>
+          <t>[-, -, -, 'MEC-2NA-C.pneumática']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-C. L. P.', -, -]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NB-C. L. P.', 'MEC-2NB-Coman. Hidraulicos', -]</t>
+          <t>[-, -, 'MEC-2NB-Coman. Hidraulicos', -]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica', -]</t>
+          <t>[-, 'ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', 'MEC-2NA-C.pneumática', 'ELM-2NA-Eletropneumática', -]</t>
+          <t>[-, -, 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C.L.P.']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>[-, -, -, 'MEC-2NA-C.pneumática']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-C. L. P.', -, -]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[-, -, -, 'MEC-2NA-C.pneumática']</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[-, 'MEC-2NB-C. L. P.', 'MEC-2NB-Coman. Hidraulicos', -]</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C.pneumática']</t>
+          <t>[-, -, 'ELM-2NA-Eletropneumática', -]</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', 'MEC-2NA-C.pneumática', -, -]</t>
+          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C.L.P.']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>[-, -, -, 'MEC-2NA-C.pneumática']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-C. L. P.', -, -]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NA-C.L.P.', 'MEC-2NA-C. Hidráulica', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', -, -, 'ELM-2NA-Eletropneumática']</t>
+          <t>[-, -, 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C.L.P.']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletro', -, 'MEC-2NA-C.L.P.']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos', -]</t>
+          <t>[-, 'ELM-2NA-Eletro', 'MEC-2NB-C. L. P.', 'ELM-2NA-Eletropneumática']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2NA-C. Hidráulica', -]</t>
+          <t>[-, 'ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -]</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2NA-C. Hidráulica', -]</t>
+          <t>['MEC-2NA-C. Hidráulica', -, 'MEC-2NA-C.pneumática', -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-C.pneumática']</t>
+          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-C. L. P.', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2NB-Coman. Hidraulicos', -]</t>
+          <t>['MEC-2NA-C.L.P.', 'ELM-2NA-Eletropneumática', 'MEC-2NA-C. Hidráulica', 'ELM-2NA-Eletro']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -]</t>
+          <t>['MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos', 'ELM-2NA-Eletropneumática']</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C.L.P.']</t>
+          <t>['MEC-2NA-C. Hidráulica', -, 'MEC-2NA-C.pneumática', -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-C.pneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-C. L. P.', -, -]</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', 'ELM-2NA-Eletro', 'MEC-2NB-C. L. P.', -]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
+          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica', -]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-2NA-Eletropneumática', -]</t>
+          <t>['MEC-2NB-C. L. P.', -, -, 'ELM-2NA-Eletropneumática']</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.pneumática', -, 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C.L.P.']</t>
+          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', -]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2NA-C.pneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', 'MEC-2NB-C. L. P.', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2NB-Coman. Hidraulicos', -, 'ELM-2NA-Eletro', -]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2NA-C. Hidráulica', 'MEC-2NA-C.L.P.']</t>
+          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', -]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletro', -, 'MEC-2NA-C.L.P.']</t>
+          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2NB-Coman. Hidraulicos', -, -]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletro', 'MEC-2NB-C. L. P.', 'ELM-2NA-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática', -]</t>
+          <t>['MEC-2NB-C. L. P.', -, 'ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática']</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C. Hidráulica', -, 'MEC-2NA-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletrohidráulica', -, -]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', 'ELM-2NA-Eletropneumática', 'MEC-2NA-C. Hidráulica', 'ELM-2NA-Eletro']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['MEC-2NB-C. L. P.', -, 'MEC-2NB-Coman. Hidraulicos', 'ELM-2NA-Eletropneumática']</t>
+          <t>[-, -, 'ELM-2NA-Eletrohidráulica', -]</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C. Hidráulica', -, 'MEC-2NA-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', 'ELM-2NA-Eletro', 'MEC-2NB-C. L. P.', -]</t>
+          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C. Hidráulica', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['MEC-2NB-C. L. P.', -, -, 'ELM-2NA-Eletropneumática']</t>
+          <t>[-, -, 'ELM-2NA-Eletrohidráulica', -]</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['MEC-2NB-Coman. Hidraulicos', -, 'ELM-2NA-Eletro', -]</t>
+          <t>['ELM-2NA-Eletropneumática', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['MEC-2NA-C.L.P.', -, 'MEC-2NA-C.pneumática', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ELM-1NA-Máquinas Térmicas e de Fluxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2NB-Coman. Hidraulicos', -, -]</t>
+          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['MEC-2NB-C. L. P.', -, 'ELM-2NA-Eletro', 'ELM-2NA-Eletropneumática']</t>
+          <t>[-, -, -, 'ELM-2NA-Eletrohidráulica']</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'ELM-2NA-Eletrohidráulica', -]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletrohidráulica', -, -]</t>
+          <t>[-, -, -, 'ELM-2NA-Eletrohidráulica']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-2NA-Eletrohidráulica', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'ELM-2NA-Eletrohidráulica', -]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>[-, -, -, 'ELM-2NA-Eletropneumática']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-2NA-Eletrohidráulica', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>[-, -, -, 'ELM-2NA-Eletropneumática']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletrohidráulica', -, -, -]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>[-, -, -, 'ELM-2NA-Eletropneumática']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, -, -, 'ELM-2NA-Eletrohidráulica']</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-2NA-Eletrohidráulica', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, -, -, 'ELM-2NA-Eletrohidráulica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-2NA-Eletrohidráulica', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'ELM-2NA-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[-, -, -, 'ELM-2NA-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletrohidráulica', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[-, -, -, 'ELM-2NA-Eletropneumática']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Guilherme-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-C. L. P.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', -, -, -]</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletro', -, -, -]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Guilherme-C. Hidráulica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-C. Hidráulica</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ELM-1NA-Gestão Integrada</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-C. Hidráulica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Guilherme-C. L. P.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletro', -, -]</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'ELM-2NA-Eletro', -, -]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['ELM-2NA-Eletropneumática', -, -, -]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Guilherme-C. L. P.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Guilherme-C. L. P.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2NA-C. Hidráulica</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Guilherme.xlsx
+++ b/data/teacher/Guilherme.xlsx
@@ -985,27 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Guilherme-Maq. Term. FLuxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MEC-2NA-C. L. P.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ELM-1NA-Maq. Term. FLuxo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletro', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Guilherme-C. Hidráulica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MEC-2NA-C. Hidráulica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletropneumática', -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ELM-1NA-Gestão Integrada</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEC-2NA-C. Hidráulica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Guilherme-C. L. P.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletro', -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[-, 'ELM-2NA-Eletro', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['ELM-2NA-Eletropneumática', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Guilherme-C. L. P.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Guilherme-C. L. P.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MEC-2NA-C. Hidráulica</t>
+          <t>-</t>
         </is>
       </c>
     </row>
